--- a/name.xlsx
+++ b/name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdxjz\Desktop\SAST-DRAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3EFA86-D623-4C62-B57C-DF51781EAC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73C162-E7A7-4693-BE5B-D32441520D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD7A6CF6-700F-5F46-A89D-D3BD44004016}"/>
   </bookViews>
@@ -849,7 +849,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
